--- a/Output/CutOut Size Check Test.xlsx
+++ b/Output/CutOut Size Check Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Work\Plan Checking tools\ElectronCutout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Documents\Python Scripts\ElectronCutout\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8840C99-0514-44D4-90C8-65C2346929B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D713AE-F115-4E8F-8284-B6C099E724F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29145" yWindow="2565" windowWidth="6990" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="19440" windowHeight="15150" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Data" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="129">
   <si>
     <t>Plan</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Expected Dimensions to Top of Insert</t>
   </si>
   <si>
-    <t>Expected</t>
-  </si>
-  <si>
     <t>RadiationType</t>
   </si>
   <si>
@@ -255,15 +252,48 @@
     <t>FFDA(A06)</t>
   </si>
   <si>
+    <t>ElectronCutoutTest2 (CutoutTest2)</t>
+  </si>
+  <si>
+    <t>ElectronCutoutTest3 (CutoutTest3)</t>
+  </si>
+  <si>
+    <t>ElectronCutoutTest4 (CutoutTest4)</t>
+  </si>
+  <si>
+    <t>ElectronCutoutQA (ElectronCutout)</t>
+  </si>
+  <si>
+    <t>ElectronQA1 (ElectronQA1)</t>
+  </si>
+  <si>
+    <t>SHOR-6+9</t>
+  </si>
+  <si>
     <t>NOSE</t>
   </si>
   <si>
+    <t>SCPR</t>
+  </si>
+  <si>
+    <t>GA 260-9</t>
+  </si>
+  <si>
+    <t>GA 260-6</t>
+  </si>
+  <si>
     <t>GA45 9MeV</t>
   </si>
   <si>
     <t>GA45 6MEV</t>
   </si>
   <si>
+    <t>GA 250 -9MEV</t>
+  </si>
+  <si>
+    <t>GA 250 -6MEV</t>
+  </si>
+  <si>
     <t>FieldType</t>
   </si>
   <si>
@@ -330,9 +360,15 @@
     <t>ApplicatorOpening</t>
   </si>
   <si>
+    <t>Block1</t>
+  </si>
+  <si>
     <t>CUSTOM</t>
   </si>
   <si>
+    <t>INSERT</t>
+  </si>
+  <si>
     <t>APERTURE</t>
   </si>
   <si>
@@ -342,6 +378,9 @@
     <t>BlockMountingPosition</t>
   </si>
   <si>
+    <t>SOURCE_SIDE</t>
+  </si>
+  <si>
     <t>PATIENT_SIDE</t>
   </si>
   <si>
@@ -372,10 +411,40 @@
     <t>ELECTRON PLANNED</t>
   </si>
   <si>
-    <t>PatientID</t>
+    <t>PatientId</t>
+  </si>
+  <si>
+    <t>CutoutTest2</t>
+  </si>
+  <si>
+    <t>CutoutTest3</t>
+  </si>
+  <si>
+    <t>CutoutTest4</t>
   </si>
   <si>
     <t>ElectronCutout</t>
+  </si>
+  <si>
+    <t>ElectronQA1</t>
+  </si>
+  <si>
+    <t>PatientName</t>
+  </si>
+  <si>
+    <t>ElectronCutoutTest2</t>
+  </si>
+  <si>
+    <t>ElectronCutoutTest3</t>
+  </si>
+  <si>
+    <t>ElectronCutoutTest4</t>
+  </si>
+  <si>
+    <t>ElectronCutoutQA</t>
+  </si>
+  <si>
+    <t>PatientBirthDate</t>
   </si>
 </sst>
 </file>
@@ -1695,47 +1764,1547 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CutOut Coordinates'!$C$3:$C$7</c:f>
+              <c:f>'CutOut Coordinates'!$C$3:$C$257</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>2.4109546706589842</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.4204093944868732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.4499999999999993</c:v>
+                  <c:v>2.4109546706589842</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.3920452230032057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>2.3636810515195386</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3731357753474271</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3825904991753166</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3731357753474271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3542263276916491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3164074323800921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2407696417569785</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1840412987896434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1084035081665302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9949468222318592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9571279269203026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9382184792645243</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7963976218461863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7585787265346291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7207598312230727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6451220405999589</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5694842499768453</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5316653546652885</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4938464593537319</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3047519827959477</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1534764015497208</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0022008203034936</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.6145571433600362</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60510241953214705</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49164573359747671</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.416007942974364</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30255125703969266</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.15127567579346643</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13236622813768803</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.4547332826130273E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-5.6728437514573474E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.17018512344924386</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.28364180938391426</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.43491739063014145</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.60510241953214705</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.71855910546681745</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.73746855312259585</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.77528744843415265</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.79419689608993094</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.83201579140148785</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.94547247733615802</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.1345669538939422</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.3803897734190613</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.4938464593537319</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.5694842499768453</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.6829409359115157</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.7963976218461863</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.8153070695019644</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.8531259648135212</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.8720354124692999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.9098543077808565</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.0705846128549728</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.0894940605107513</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.1084035081665302</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.1840412987896434</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-2.2218601941012004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-2.2407696417569785</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-2.259679089412757</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.278588537068535</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.3542263276916491</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.3731357753474271</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.3920452230032057</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.4487735659705412</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.4676830136263193</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-2.4865924612820978</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-2.5055019089378763</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-2.5149566327657653</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.5055019089378763</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-2.4865924612820978</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-2.4676830136263193</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-2.3920452230032057</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-2.3731357753474271</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-2.278588537068535</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.2407696417569785</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-2.1462224034780863</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2.1273129558223083</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2.1084035081665302</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.9476732030924133</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.9193090316087458</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.8625806886414105</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.8436712409856322</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.8247617933298539</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.8058523456740752</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.7869428980182969</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.5694842499768453</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.5316653546652885</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.5127559070095102</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.4749370116979534</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.4560275640421749</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.2669330874843909</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.2480236398286129</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.2102047445170561</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.1912952968612776</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.1534764015497208</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-1.1345669538939422</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1.0211102679592718</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.90765358202460145</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.83201579140148785</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.73746855312259585</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.51055518125325505</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.37818904766280631</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.24582291407235743</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.24582291407235743</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.26473236172813686</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.416007942974363</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.52946462890903445</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.58619297187636865</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.68074021015526076</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.83201579140148885</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.0211102679592718</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.0589291632708286</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.0967480585823854</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.172385849205499</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.3614803257632828</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3803897734190613</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.4560275640421749</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.6451220405999589</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.6829409359115157</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.7207598312230727</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8342165171577429</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.8720354124692999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.9098543077808565</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.9476732030924133</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.0327657175434162</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.0516751651991947</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.0894940605107513</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.1840412987896434</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.259679089412757</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.278588537068535</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.2974979847243135</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3731357753474271</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.4109546706589842</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CutOut Coordinates'!$D$3:$D$7</c:f>
+              <c:f>'CutOut Coordinates'!$D$3:$D$257</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="255"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.416007942974363</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4499999999999993</c:v>
+                  <c:v>0.17963984727713306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.17018512344924386</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.4499999999999993</c:v>
+                  <c:v>9.454714373165371E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>-0.16073039962135469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17018512344924386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.40655321914647385</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.416007942974363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.58619297187636865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.73746855312259585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.88874413436882305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.115657506238164</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3425708781075045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.5694842499768453</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6073031452884021</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6451220405999589</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7869428980182969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.8058523456740752</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8436712409856322</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.881490136297189</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.9571279269203026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9760373745760811</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.0138562698876381</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.1084035081665302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.1462224034780863</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.1651318511338649</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.1745865749617543</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.1651318511338649</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1462224034780863</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1273129558223083</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.0894940605107513</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.0138562698876381</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.9949468222318592</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.9760373745760811</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.9382184792645243</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.9003995839529673</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.8436712409856322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.8058523456740752</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.7491240027067403</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.692395659739405</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.6734862120836267</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.6545767644278482</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6356673167720701</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.6167578691162914</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.503301183181621</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.4843917355258427</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1.4654822878700642</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.4465728402142859</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.4276633925585074</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.3898444972469506</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.3331161542796153</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.3142067066238368</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.2952972589680585</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.2763878113122802</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.2574783636565017</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.0967480585823854</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.0589291632708286</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.0400197156150501</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.88874413436882305</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.77528744843415265</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.73746855312259585</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.71855910546681745</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.68074021015526076</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.60510241953214705</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.56728352422059036</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.54837407656481185</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.43491739063014145</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.37818904766280631</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.30255125703969266</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.20800401876080066</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.12291150430979789</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.13236622813768709</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.20800401876080066</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.26473236172813586</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.416007942974363</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.52946462890903345</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.90765358202460145</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0211102679592718</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.2102047445170561</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.2291141921728341</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.2669330874843909</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.4276633925585074</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4371181163863966</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.5505748023210668</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5694842499768453</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.6073031452884021</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6262125929441806</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.6640314882557374</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.881490136297189</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9003995839529673</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.9193090316087458</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.9382184792645243</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.9571279269203026</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.0516751651991947</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.0705846128549728</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.0894940605107513</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.1084035081665302</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.1273129558223083</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.1462224034780863</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.2029507464454223</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.2407696417569785</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.259679089412757</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.278588537068535</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.3164074323800921</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.3353168800358706</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.34477160386376</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.3636810515195386</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.3542263276916491</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.3164074323800921</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.259679089412757</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.2407696417569785</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.2218601941012004</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2.1840412987896434</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.0894940605107513</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.0516751651991947</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.0327657175434162</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.9571279269203026</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.8625806886414105</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.8436712409856322</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.8247617933298539</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.7302145550509618</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.692395659739405</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.6734862120836267</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.5600295261489563</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.541120078493178</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.503301183181621</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.4843917355258427</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.3992992210748398</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.3614803257632828</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.323661430451726</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.1345669538939422</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.83201579140148785</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.73746855312259585</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.71855910546681745</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.56728352422059036</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.416007942974363</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1763,8 +3332,8 @@
         <c:axId val="512869912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
-          <c:max val="20"/>
-          <c:min val="-20"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,8 +3382,8 @@
         <c:axId val="512872264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20"/>
-          <c:min val="-20"/>
+          <c:max val="3"/>
+          <c:min val="-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -2458,126 +4027,182 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>470648</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>146411</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>489698</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>108311</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132469</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>910</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="UpArrow">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Cutout">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D56E545-1C26-4DAF-B030-F11182633B77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="45991" t="13512" r="5246" b="51346"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9005048" y="4451711"/>
-          <a:ext cx="914400" cy="914400"/>
+        <a:xfrm rot="-5530">
+          <a:off x="0" y="0"/>
+          <a:ext cx="3790069" cy="3534685"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205435</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536635</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94617</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A982280-BD47-4260-A0FF-3681926063B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="815035" y="687342"/>
+          <a:ext cx="2160000" cy="2160000"/>
+          <a:chOff x="815035" y="687342"/>
+          <a:chExt cx="2160000" cy="2160000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="UpArrow">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="1895035" y="687342"/>
+            <a:ext cx="0" cy="2160000"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="HorzArrow">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="815035" y="1767342"/>
+            <a:ext cx="2160000" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent2"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent2"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>443727</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205435</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>96792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>462777</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="HorzArrow">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8978127" y="3867150"/>
-          <a:ext cx="914400" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>336909</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>108477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>355959</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>70377</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>536635</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2598,7 +4223,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2608,7 +4233,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CutoutCoord" displayName="CutoutCoord" ref="A2:D7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CutoutCoord" displayName="CutoutCoord" ref="A2:D257" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="X" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Y" dataDxfId="17"/>
@@ -2904,113 +4529,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1230A95A-F544-4866-9777-0966AA516094}">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA3173C-C7B8-48E7-ADBC-92B0989A5C65}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
         <v>100</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3018,334 +4858,1129 @@
       <c r="C10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>345</v>
       </c>
-      <c r="C13">
+      <c r="E14">
         <v>345</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14">
+      <c r="F14">
+        <v>216</v>
+      </c>
+      <c r="G14">
+        <v>216</v>
+      </c>
+      <c r="H14">
+        <v>345</v>
+      </c>
+      <c r="I14">
+        <v>345</v>
+      </c>
+      <c r="J14">
+        <v>216</v>
+      </c>
+      <c r="K14">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
         <v>600</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>600</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>600</v>
+      </c>
+      <c r="E15">
+        <v>600</v>
+      </c>
+      <c r="F15">
+        <v>600</v>
+      </c>
+      <c r="G15">
+        <v>600</v>
+      </c>
+      <c r="H15">
+        <v>600</v>
+      </c>
+      <c r="I15">
+        <v>600</v>
+      </c>
+      <c r="J15">
+        <v>600</v>
+      </c>
+      <c r="K15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
+        <v>260</v>
+      </c>
+      <c r="C16">
+        <v>260</v>
+      </c>
+      <c r="D16">
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16">
+        <v>250</v>
+      </c>
+      <c r="H16">
+        <v>45</v>
+      </c>
+      <c r="I16">
+        <v>45</v>
+      </c>
+      <c r="J16">
+        <v>250</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17">
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
         <v>345</v>
       </c>
-      <c r="C17">
+      <c r="E18">
         <v>345</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18">
+      <c r="F18">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>76</v>
+      </c>
+      <c r="H18">
+        <v>345</v>
+      </c>
+      <c r="I18">
+        <v>345</v>
+      </c>
+      <c r="J18">
+        <v>76</v>
+      </c>
+      <c r="K18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19">
+        <v>100.5</v>
+      </c>
+      <c r="C19">
+        <v>100.5</v>
+      </c>
+      <c r="D19">
         <v>100.452761721108</v>
       </c>
-      <c r="C18">
+      <c r="E19">
         <v>100.452761721108</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>105.54324140148799</v>
+      </c>
+      <c r="G19">
+        <v>105.54324140148799</v>
+      </c>
+      <c r="H19">
+        <v>100.452761721108</v>
+      </c>
+      <c r="I19">
+        <v>100.452761721108</v>
+      </c>
+      <c r="J19">
+        <v>105.54324140148799</v>
+      </c>
+      <c r="K19">
+        <v>105.54324140148799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>4000</v>
-      </c>
-      <c r="C20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21">
+        <v>4001</v>
+      </c>
+      <c r="C21">
+        <v>4001</v>
+      </c>
+      <c r="D21">
+        <v>4000</v>
+      </c>
+      <c r="E21">
+        <v>4000</v>
+      </c>
+      <c r="F21">
+        <v>4001</v>
+      </c>
+      <c r="G21">
+        <v>4001</v>
+      </c>
+      <c r="H21">
+        <v>4000</v>
+      </c>
+      <c r="I21">
+        <v>4000</v>
+      </c>
+      <c r="J21">
+        <v>4001</v>
+      </c>
+      <c r="K21">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E27" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>63</v>
+      </c>
+      <c r="J27" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>4094</v>
+      </c>
+      <c r="C30">
+        <v>4094</v>
+      </c>
+      <c r="D30">
         <v>126</v>
       </c>
-      <c r="C29">
+      <c r="E30">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>4094</v>
+      </c>
+      <c r="G30">
+        <v>4094</v>
+      </c>
+      <c r="H30">
+        <v>126</v>
+      </c>
+      <c r="I30">
+        <v>126</v>
+      </c>
+      <c r="J30">
+        <v>126</v>
+      </c>
+      <c r="K30">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
         <v>95</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>95</v>
+      </c>
+      <c r="E32">
+        <v>95</v>
+      </c>
+      <c r="F32">
+        <v>95</v>
+      </c>
+      <c r="G32">
+        <v>95</v>
+      </c>
+      <c r="H32">
+        <v>95</v>
+      </c>
+      <c r="I32">
+        <v>95</v>
+      </c>
+      <c r="J32">
+        <v>95</v>
+      </c>
+      <c r="K32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34">
         <v>2.5</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34">
+      <c r="D34">
+        <v>2.5</v>
+      </c>
+      <c r="E34">
+        <v>2.5</v>
+      </c>
+      <c r="F34">
+        <v>2.5</v>
+      </c>
+      <c r="G34">
+        <v>2.5</v>
+      </c>
+      <c r="H34">
+        <v>2.5</v>
+      </c>
+      <c r="I34">
+        <v>2.5</v>
+      </c>
+      <c r="J34">
+        <v>2.5</v>
+      </c>
+      <c r="K34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35">
+        <v>97.5</v>
+      </c>
+      <c r="C35">
+        <v>97.5</v>
+      </c>
+      <c r="D35">
         <v>92.5</v>
       </c>
-      <c r="C34">
+      <c r="E35">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>92.5</v>
+      </c>
+      <c r="G35">
+        <v>92.5</v>
+      </c>
+      <c r="H35">
+        <v>92.5</v>
+      </c>
+      <c r="I35">
+        <v>92.5</v>
+      </c>
+      <c r="J35">
+        <v>92.5</v>
+      </c>
+      <c r="K35">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37">
+        <v>177.88507684996301</v>
+      </c>
+      <c r="C37">
+        <v>43.3431899062073</v>
+      </c>
+      <c r="D37">
         <v>234.84386534652199</v>
       </c>
-      <c r="C36">
+      <c r="E37">
         <v>160.197360616591</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B37">
+      <c r="F37">
+        <v>175.76</v>
+      </c>
+      <c r="G37">
+        <v>178.608</v>
+      </c>
+      <c r="H37">
+        <v>234.84386534652199</v>
+      </c>
+      <c r="I37">
+        <v>160.197360616591</v>
+      </c>
+      <c r="J37">
+        <v>175.75999427295</v>
+      </c>
+      <c r="K37">
+        <v>178.60762211624501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38">
+        <v>1.6</v>
+      </c>
+      <c r="C38">
+        <v>0.4</v>
+      </c>
+      <c r="D38">
         <v>2.1</v>
       </c>
-      <c r="C37">
+      <c r="E38">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F38">
+        <v>1.37494269066113</v>
+      </c>
+      <c r="G38">
+        <v>1.37505730933887</v>
+      </c>
+      <c r="H38">
+        <v>2.1</v>
+      </c>
+      <c r="I38">
+        <v>1.4</v>
+      </c>
+      <c r="J38">
+        <v>1.375</v>
+      </c>
+      <c r="K38">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" t="s">
+        <v>113</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>115</v>
+      </c>
+      <c r="G40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>104</v>
-      </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" t="s">
+        <v>121</v>
+      </c>
+      <c r="J42" t="s">
+        <v>122</v>
+      </c>
+      <c r="K42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" t="s">
+        <v>126</v>
+      </c>
+      <c r="G43" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J43" t="s">
+        <v>122</v>
+      </c>
+      <c r="K43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3357,7 +5992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="O1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
@@ -3374,7 +6009,7 @@
       </c>
       <c r="P1" s="32" t="str">
         <f>Plan</f>
-        <v>NOSE</v>
+        <v>ElectronCutoutTest2 (CutoutTest2)</v>
       </c>
     </row>
     <row r="2" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3383,7 +6018,7 @@
       </c>
       <c r="P2" s="34" t="str">
         <f>Field</f>
-        <v>GA45 9MeV</v>
+        <v>SHOR-6+9</v>
       </c>
     </row>
     <row r="3" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3400,26 +6035,26 @@
       <c r="O5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="38" t="str">
+      <c r="P5" s="38">
         <f>ApplicatorID</f>
-        <v>A06</v>
-      </c>
-      <c r="Q5" s="39">
+        <v>260</v>
+      </c>
+      <c r="Q5" s="39" t="str">
         <f>AccessoryCode</f>
-        <v>4000</v>
+        <v>A10</v>
       </c>
     </row>
     <row r="6" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="41" t="str">
+      <c r="P6" s="41">
         <f>BlockTrayID</f>
-        <v>FFDA(A06)</v>
-      </c>
-      <c r="Q6" s="42">
+        <v>4001</v>
+      </c>
+      <c r="Q6" s="42" t="str">
         <f>InsertCode</f>
-        <v>126</v>
+        <v>FFDA(A10+)</v>
       </c>
     </row>
     <row r="7" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3438,7 +6073,7 @@
       </c>
       <c r="P9" s="44">
         <f>Cutout_Extent</f>
-        <v>0</v>
+        <v>2.6600001</v>
       </c>
     </row>
     <row r="10" spans="15:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3465,11 +6100,11 @@
     <row r="14" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O14" s="7">
         <f>x_range*bottom_of_electron_insert/SSD</f>
-        <v>18.805970149253731</v>
+        <v>4.9131212947185467</v>
       </c>
       <c r="P14" s="8">
         <f>y_range*bottom_of_electron_insert/SSD</f>
-        <v>18.805970149253731</v>
+        <v>4.5178126999445878</v>
       </c>
     </row>
     <row r="15" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3496,11 +6131,11 @@
     <row r="19" spans="15:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O19" s="49">
         <f>x_range*top_of_electron_insert/100</f>
-        <v>18.5</v>
+        <v>4.8309660232526381</v>
       </c>
       <c r="P19" s="50">
         <f>y_range*top_of_electron_insert/100</f>
-        <v>18.5</v>
+        <v>4.4422676224812925</v>
       </c>
     </row>
     <row r="21" spans="15:16" x14ac:dyDescent="0.25">
@@ -3533,7 +6168,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -3546,335 +6181,675 @@
     <col min="5" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="E1" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="59" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="59"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","ELECTRON")</f>
-        <v>ELECTRON</v>
-      </c>
-      <c r="F3" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","ELECTRON")</f>
-        <v>ELECTRON</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16">
+        <v>9</v>
+      </c>
+      <c r="C8" s="16">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="16">
+        <v>260</v>
+      </c>
+      <c r="C9" s="16">
+        <v>260</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9" s="29">
+        <v>45</v>
+      </c>
+      <c r="F9" s="29">
+        <v>250</v>
+      </c>
+      <c r="G9">
+        <v>250</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>250</v>
+      </c>
+      <c r="K9">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="16">
+        <v>4001</v>
+      </c>
+      <c r="C11" s="16">
+        <v>4001</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
+      </c>
+      <c r="E11" s="29">
+        <v>4000</v>
+      </c>
+      <c r="F11" s="29">
+        <v>4001</v>
+      </c>
+      <c r="G11">
+        <v>4001</v>
+      </c>
+      <c r="H11">
+        <v>4000</v>
+      </c>
+      <c r="I11">
+        <v>4000</v>
+      </c>
+      <c r="J11">
+        <v>4001</v>
+      </c>
+      <c r="K11">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="16">
+        <v>4094</v>
+      </c>
+      <c r="C13" s="16">
+        <v>4094</v>
+      </c>
+      <c r="D13">
+        <v>126</v>
+      </c>
+      <c r="E13" s="29">
+        <v>126</v>
+      </c>
+      <c r="F13" s="29">
+        <v>4094</v>
+      </c>
+      <c r="G13">
+        <v>4094</v>
+      </c>
+      <c r="H13">
+        <v>126</v>
+      </c>
+      <c r="I13">
+        <v>126</v>
+      </c>
+      <c r="J13">
+        <v>126</v>
+      </c>
+      <c r="K13">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","FIXED_SSD")</f>
-        <v>FIXED_SSD</v>
-      </c>
-      <c r="F4" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","FIXED_SSD")</f>
-        <v>FIXED_SSD</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","ELECTRON PLANNED")</f>
-        <v>ELECTRON PLANNED</v>
-      </c>
-      <c r="F5" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","ELECTRON PLANNED")</f>
-        <v>ELECTRON PLANNED</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","TR2, TR3")</f>
-        <v>TR2, TR3</v>
-      </c>
-      <c r="F6" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","TR2, TR3")</f>
-        <v>TR2, TR3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="16">
-        <v>9</v>
-      </c>
-      <c r="C7" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="16">
-        <v>45</v>
-      </c>
-      <c r="C8" s="16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","A06, A10, A15, A20, A25")</f>
-        <v>A06, A10, A15, A20, A25</v>
-      </c>
-      <c r="F9" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","A06, A10, A15, A20, A25")</f>
-        <v>A06, A10, A15, A20, A25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="16">
-        <v>4000</v>
-      </c>
-      <c r="C10" s="16">
-        <v>4000</v>
-      </c>
-      <c r="E10" s="29">
-        <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],3,FALSE))</f>
-        <v>4000</v>
-      </c>
-      <c r="F10" s="29">
-        <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],3,FALSE))</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="29" t="str">
-        <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],7,FALSE))</f>
-        <v>FFDA(A06)</v>
-      </c>
-      <c r="F11" s="29" t="str">
-        <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],7,FALSE))</f>
-        <v>FFDA(A06)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="16">
-        <v>126</v>
-      </c>
-      <c r="C12" s="16">
-        <v>126</v>
-      </c>
-      <c r="E12" s="29">
-        <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],8,FALSE))</f>
-        <v>126</v>
-      </c>
-      <c r="F12" s="29">
-        <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],8,FALSE))</f>
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","APERTURE")</f>
-        <v>APERTURE</v>
-      </c>
-      <c r="F13" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","APERTURE")</f>
-        <v>APERTURE</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","Cut-out")</f>
-        <v>Cut-out</v>
-      </c>
-      <c r="F14" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","Cut-out")</f>
-        <v>Cut-out</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="29" t="str">
-        <f>IF(ISBLANK(B9),"","PRESENT")</f>
-        <v>PRESENT</v>
-      </c>
-      <c r="F15" s="29" t="str">
-        <f>IF(ISBLANK(C9),"","PRESENT")</f>
-        <v>PRESENT</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="16">
+        <v>95</v>
+      </c>
+      <c r="C18" s="16">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>95</v>
+      </c>
+      <c r="E18">
+        <v>95</v>
+      </c>
+      <c r="F18">
+        <v>95</v>
+      </c>
+      <c r="G18">
+        <v>95</v>
+      </c>
+      <c r="H18">
+        <v>95</v>
+      </c>
+      <c r="I18">
+        <v>95</v>
+      </c>
+      <c r="J18">
+        <v>95</v>
+      </c>
+      <c r="K18">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" s="16">
-        <v>95</v>
-      </c>
-      <c r="C17" s="16">
-        <v>95</v>
-      </c>
-      <c r="E17" s="29">
-        <f>IF(ISBLANK(B9),"",95)</f>
-        <v>95</v>
-      </c>
-      <c r="F17" s="29">
-        <f>IF(ISBLANK(C9),"",95)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
-      <c r="E22" s="29">
+      <c r="E22" s="29" t="e">
         <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],4,FALSE))</f>
-        <v>6</v>
-      </c>
-      <c r="F22" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="29" t="e">
         <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],4,FALSE))</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="30"/>
+      <c r="B23" s="30">
+        <v>2.6600001</v>
+      </c>
       <c r="C23" s="30"/>
-      <c r="E23" s="29">
+      <c r="E23" s="29" t="e">
         <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],4,FALSE)/2)</f>
-        <v>3</v>
-      </c>
-      <c r="F23" s="29">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="29" t="e">
         <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],4,FALSE)/2)</f>
-        <v>3</v>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +6863,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K257"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J12"/>
@@ -3905,18 +6880,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1">
         <f>bottom_of_electron_insert</f>
-        <v>94.5</v>
+        <v>94.547238278891996</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J1" s="62"/>
       <c r="K1" s="63"/>
@@ -3929,265 +6904,3705 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="J2" s="11">
         <v>93</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>10</v>
+        <v>2.5500001000000001</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.44000009999999995</v>
       </c>
       <c r="C3" s="1">
         <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>9.4499999999999993</v>
+        <v>2.4109546706589842</v>
       </c>
       <c r="D3" s="1">
         <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
+        <v>0.416007942974363</v>
       </c>
       <c r="F3" s="1">
         <f>MAX(CutoutCoord[X])</f>
-        <v>10</v>
+        <v>2.5600000999999999</v>
       </c>
       <c r="G3" s="1">
         <f>MAX(CutoutCoord[Y])</f>
-        <v>10</v>
+        <v>2.5000001000000003</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="11">
         <v>95</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>2.5600000999999999</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>0.19000010000000001</v>
       </c>
       <c r="C4" s="1">
         <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
+        <v>2.4204093944868732</v>
       </c>
       <c r="D4" s="1">
         <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>9.4499999999999993</v>
+        <v>0.17963984727713306</v>
       </c>
       <c r="F4" s="1">
         <f>MIN(CutoutCoord[X])</f>
-        <v>-10</v>
+        <v>-2.6600001</v>
       </c>
       <c r="G4" s="1">
         <f>MIN(CutoutCoord[Y])</f>
-        <v>-10</v>
+        <v>-2.3000001000000001</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="12">
         <v>96.8</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>-10</v>
+        <v>2.5500001000000001</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.1800001</v>
       </c>
       <c r="C5" s="1">
         <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>-9.4499999999999993</v>
+        <v>2.4109546706589842</v>
       </c>
       <c r="D5" s="1">
         <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
+        <v>0.17018512344924386</v>
       </c>
       <c r="F5" s="1">
         <f>F3-F4</f>
-        <v>20</v>
+        <v>5.2200001999999994</v>
       </c>
       <c r="G5" s="1">
         <f>G3-G4</f>
-        <v>20</v>
+        <v>4.8000002000000004</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>2.5300001000000001</v>
       </c>
       <c r="B6" s="1">
-        <v>-10</v>
+        <v>9.9999900000000003E-2</v>
       </c>
       <c r="C6" s="1">
         <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
+        <v>2.3920452230032057</v>
       </c>
       <c r="D6" s="1">
         <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>-9.4499999999999993</v>
+        <v>9.454714373165371E-2</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J6" s="13">
-        <v>100.5</v>
+        <v>100.452761721108</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>2.5000001000000003</v>
       </c>
       <c r="B7" s="1">
-        <v>0</v>
+        <v>-0.17000010000000002</v>
       </c>
       <c r="C7" s="1">
         <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>9.4499999999999993</v>
+        <v>2.3636810515195386</v>
       </c>
       <c r="D7" s="1">
         <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
+        <v>-0.16073039962135469</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="14">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="1">
+        <v>2.5100001000000001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-0.1800001</v>
+      </c>
+      <c r="C8" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.3731357753474271</v>
+      </c>
+      <c r="D8" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.17018512344924386</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="1">
+        <v>2.5200000999999999</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-0.4300001</v>
+      </c>
+      <c r="C9" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.3825904991753166</v>
+      </c>
+      <c r="D9" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.40655321914647385</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="1">
+        <v>2.5100001000000001</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.44000009999999995</v>
+      </c>
+      <c r="C10" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.3731357753474271</v>
+      </c>
+      <c r="D10" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.416007942974363</v>
+      </c>
       <c r="I10" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2.4900001</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-0.62000010000000005</v>
+      </c>
+      <c r="C11" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.3542263276916491</v>
+      </c>
+      <c r="D11" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.58619297187636865</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="I11" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="J11" s="15">
         <f>Source_to_bottom_of_electron_insert-(SSD-100)</f>
-        <v>94.5</v>
+        <v>94.547238278891996</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1">
+        <v>2.4500001</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-0.78000009999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.3164074323800921</v>
+      </c>
+      <c r="D12" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.73746855312259585</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="8">
         <f>Source_to_top_of_electron_insert-(SSD-100)</f>
-        <v>92.5</v>
+        <v>92.547238278891996</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>2.3700000999999999</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-0.94000010000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.2407696417569785</v>
+      </c>
+      <c r="D13" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.88874413436882305</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>2.3100000999999999</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-1.1800001</v>
+      </c>
+      <c r="C14" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.1840412987896434</v>
+      </c>
+      <c r="D14" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.115657506238164</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1">
+        <v>2.2300001000000003</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-1.4200001</v>
+      </c>
+      <c r="C15" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.1084035081665302</v>
+      </c>
+      <c r="D15" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.3425708781075045</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1">
+        <v>2.1100000999999997</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-1.6600001</v>
+      </c>
+      <c r="C16" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.9949468222318592</v>
+      </c>
+      <c r="D16" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.5694842499768453</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1">
+        <v>2.0700001000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1.7000001</v>
+      </c>
+      <c r="C17" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.9571279269203026</v>
+      </c>
+      <c r="D17" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.6073031452884021</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1">
+        <v>2.0500001000000001</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-1.7400001</v>
+      </c>
+      <c r="C18" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.9382184792645243</v>
+      </c>
+      <c r="D18" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.6451220405999589</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="1">
+        <v>1.9000001000000002</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-1.8900001</v>
+      </c>
+      <c r="C19" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.7963976218461863</v>
+      </c>
+      <c r="D19" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.7869428980182969</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="1">
+        <v>1.8600000999999999</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-1.9100001</v>
+      </c>
+      <c r="C20" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.7585787265346291</v>
+      </c>
+      <c r="D20" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.8058523456740752</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1">
+        <v>1.8200001000000001</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-1.9500001</v>
+      </c>
+      <c r="C21" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.7207598312230727</v>
+      </c>
+      <c r="D21" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.8436712409856322</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>1.7400001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-1.9900001</v>
+      </c>
+      <c r="C22" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.6451220405999589</v>
+      </c>
+      <c r="D22" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.881490136297189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1.6600001</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-2.0700001000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.5694842499768453</v>
+      </c>
+      <c r="D23" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.9571279269203026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>1.6200000999999999</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-2.0900001000000001</v>
+      </c>
+      <c r="C24" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.5316653546652885</v>
+      </c>
+      <c r="D24" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.9760373745760811</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>1.5800000999999999</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-2.1300001000000002</v>
+      </c>
+      <c r="C25" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.4938464593537319</v>
+      </c>
+      <c r="D25" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.0138562698876381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>1.3800001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-2.2300001000000003</v>
+      </c>
+      <c r="C26" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.3047519827959477</v>
+      </c>
+      <c r="D26" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.1084035081665302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1.2200001</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-2.2700000999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.1534764015497208</v>
+      </c>
+      <c r="D27" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.1462224034780863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1.0600001000000001</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-2.2900000999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.0022008203034936</v>
+      </c>
+      <c r="D28" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.1651318511338649</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>0.65000009999999997</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-2.3000001000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.6145571433600362</v>
+      </c>
+      <c r="D29" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.1745865749617543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>0.64000009999999996</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-2.2900000999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.60510241953214705</v>
+      </c>
+      <c r="D30" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.1651318511338649</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>0.52000010000000008</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-2.2700000999999999</v>
+      </c>
+      <c r="C31" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.49164573359747671</v>
+      </c>
+      <c r="D31" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.1462224034780863</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>0.440000100000001</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-2.2500001000000003</v>
+      </c>
+      <c r="C32" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.416007942974364</v>
+      </c>
+      <c r="D32" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.1273129558223083</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>0.32000010000000001</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-2.2100000999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.30255125703969266</v>
+      </c>
+      <c r="D33" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.0894940605107513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0.16000010000000101</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-2.1300001000000002</v>
+      </c>
+      <c r="C34" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.15127567579346643</v>
+      </c>
+      <c r="D34" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-2.0138562698876381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>0.14000010000000102</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-2.1100000999999997</v>
+      </c>
+      <c r="C35" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.13236622813768803</v>
+      </c>
+      <c r="D35" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.9949468222318592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>0.10000009999999999</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-2.0900001000000001</v>
+      </c>
+      <c r="C36" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>9.4547332826130273E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.9760373745760811</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>-6.0000100000000001E-2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-2.0500001000000001</v>
+      </c>
+      <c r="C37" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-5.6728437514573474E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.9382184792645243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>-0.1800001</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-2.0100001000000001</v>
+      </c>
+      <c r="C38" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.17018512344924386</v>
+      </c>
+      <c r="D38" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.9003995839529673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>-0.30000009999999999</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-1.9500001</v>
+      </c>
+      <c r="C39" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.28364180938391426</v>
+      </c>
+      <c r="D39" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.8436712409856322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>-0.46000009999999997</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-1.9100001</v>
+      </c>
+      <c r="C40" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.43491739063014145</v>
+      </c>
+      <c r="D40" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.8058523456740752</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>-0.64000009999999996</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-1.8500001000000001</v>
+      </c>
+      <c r="C41" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.60510241953214705</v>
+      </c>
+      <c r="D41" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.7491240027067403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>-0.76000009999999996</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-1.7900000999999999</v>
+      </c>
+      <c r="C42" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.71855910546681745</v>
+      </c>
+      <c r="D42" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.692395659739405</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>-0.78000009999999997</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-1.7700001000000001</v>
+      </c>
+      <c r="C43" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.73746855312259585</v>
+      </c>
+      <c r="D43" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.6734862120836267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>-0.82000010000000001</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-1.7500001000000001</v>
+      </c>
+      <c r="C44" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.77528744843415265</v>
+      </c>
+      <c r="D44" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.6545767644278482</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>-0.84000009999999992</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-1.7300001000000003</v>
+      </c>
+      <c r="C45" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.79419689608993094</v>
+      </c>
+      <c r="D45" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.6356673167720701</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>-0.88000009999999995</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-1.7100000999999998</v>
+      </c>
+      <c r="C46" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.83201579140148785</v>
+      </c>
+      <c r="D46" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.6167578691162914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>-1.0000000999999998</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-1.5900000999999999</v>
+      </c>
+      <c r="C47" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.94547247733615802</v>
+      </c>
+      <c r="D47" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.503301183181621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>-1.2000001</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-1.5700001000000001</v>
+      </c>
+      <c r="C48" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.1345669538939422</v>
+      </c>
+      <c r="D48" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.4843917355258427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>-1.4600001</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-1.5500000999999999</v>
+      </c>
+      <c r="C49" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.3803897734190613</v>
+      </c>
+      <c r="D49" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.4654822878700642</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>-1.5800000999999999</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-1.5300001000000001</v>
+      </c>
+      <c r="C50" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.4938464593537319</v>
+      </c>
+      <c r="D50" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.4465728402142859</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>-1.6600001</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-1.5100001000000001</v>
+      </c>
+      <c r="C51" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.5694842499768453</v>
+      </c>
+      <c r="D51" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.4276633925585074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>-1.7800001000000001</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-1.4700001</v>
+      </c>
+      <c r="C52" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.6829409359115157</v>
+      </c>
+      <c r="D52" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.3898444972469506</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>-1.9000001000000002</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-1.4100001</v>
+      </c>
+      <c r="C53" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.7963976218461863</v>
+      </c>
+      <c r="D53" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.3331161542796153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>-1.9200001</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-1.3900001</v>
+      </c>
+      <c r="C54" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.8153070695019644</v>
+      </c>
+      <c r="D54" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.3142067066238368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>-1.9600000999999998</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-1.3700000999999999</v>
+      </c>
+      <c r="C55" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.8531259648135212</v>
+      </c>
+      <c r="D55" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.2952972589680585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>-1.9800001000000003</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-1.3500000999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.8720354124692999</v>
+      </c>
+      <c r="D56" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.2763878113122802</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>-2.0200000999999999</v>
+      </c>
+      <c r="B57" s="1">
+        <v>-1.3300000999999999</v>
+      </c>
+      <c r="C57" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.9098543077808565</v>
+      </c>
+      <c r="D57" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.2574783636565017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>-2.1900000999999998</v>
+      </c>
+      <c r="B58" s="1">
+        <v>-1.1600001</v>
+      </c>
+      <c r="C58" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.0705846128549728</v>
+      </c>
+      <c r="D58" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.0967480585823854</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>-2.2100000999999998</v>
+      </c>
+      <c r="B59" s="1">
+        <v>-1.1200000999999999</v>
+      </c>
+      <c r="C59" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.0894940605107513</v>
+      </c>
+      <c r="D59" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.0589291632708286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>-2.2300001000000003</v>
+      </c>
+      <c r="B60" s="1">
+        <v>-1.1000000999999999</v>
+      </c>
+      <c r="C60" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.1084035081665302</v>
+      </c>
+      <c r="D60" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-1.0400197156150501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>-2.3100000999999999</v>
+      </c>
+      <c r="B61" s="1">
+        <v>-0.94000010000000001</v>
+      </c>
+      <c r="C61" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.1840412987896434</v>
+      </c>
+      <c r="D61" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.88874413436882305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>-2.3500000999999999</v>
+      </c>
+      <c r="B62" s="1">
+        <v>-0.82000010000000001</v>
+      </c>
+      <c r="C62" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.2218601941012004</v>
+      </c>
+      <c r="D62" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.77528744843415265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>-2.3700000999999999</v>
+      </c>
+      <c r="B63" s="1">
+        <v>-0.78000009999999997</v>
+      </c>
+      <c r="C63" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.2407696417569785</v>
+      </c>
+      <c r="D63" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.73746855312259585</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>-2.3900001</v>
+      </c>
+      <c r="B64" s="1">
+        <v>-0.76000009999999996</v>
+      </c>
+      <c r="C64" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.259679089412757</v>
+      </c>
+      <c r="D64" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.71855910546681745</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>-2.4100001</v>
+      </c>
+      <c r="B65" s="1">
+        <v>-0.72000010000000003</v>
+      </c>
+      <c r="C65" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.278588537068535</v>
+      </c>
+      <c r="D65" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.68074021015526076</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>-2.4900001</v>
+      </c>
+      <c r="B66" s="1">
+        <v>-0.64000009999999996</v>
+      </c>
+      <c r="C66" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.3542263276916491</v>
+      </c>
+      <c r="D66" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.60510241953214705</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>-2.5100001000000001</v>
+      </c>
+      <c r="B67" s="1">
+        <v>-0.60000010000000004</v>
+      </c>
+      <c r="C67" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.3731357753474271</v>
+      </c>
+      <c r="D67" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.56728352422059036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>-2.5300001000000001</v>
+      </c>
+      <c r="B68" s="1">
+        <v>-0.58000010000000002</v>
+      </c>
+      <c r="C68" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.3920452230032057</v>
+      </c>
+      <c r="D68" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.54837407656481185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>-2.5900001000000001</v>
+      </c>
+      <c r="B69" s="1">
+        <v>-0.46000009999999997</v>
+      </c>
+      <c r="C69" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.4487735659705412</v>
+      </c>
+      <c r="D69" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.43491739063014145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>-2.6100000999999997</v>
+      </c>
+      <c r="B70" s="1">
+        <v>-0.40000010000000003</v>
+      </c>
+      <c r="C70" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.4676830136263193</v>
+      </c>
+      <c r="D70" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.37818904766280631</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>-2.6300001000000002</v>
+      </c>
+      <c r="B71" s="1">
+        <v>-0.32000010000000001</v>
+      </c>
+      <c r="C71" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.4865924612820978</v>
+      </c>
+      <c r="D71" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.30255125703969266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>-2.6500001000000002</v>
+      </c>
+      <c r="B72" s="1">
+        <v>-0.22000009999999998</v>
+      </c>
+      <c r="C72" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.5055019089378763</v>
+      </c>
+      <c r="D72" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>-0.20800401876080066</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>-2.6600001</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.13000010000000001</v>
+      </c>
+      <c r="C73" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.5149566327657653</v>
+      </c>
+      <c r="D73" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.12291150430979789</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>-2.6500001000000002</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.14000010000000002</v>
+      </c>
+      <c r="C74" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.5055019089378763</v>
+      </c>
+      <c r="D74" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.13236622813768709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>-2.6300001000000002</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.22000009999999998</v>
+      </c>
+      <c r="C75" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.4865924612820978</v>
+      </c>
+      <c r="D75" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.20800401876080066</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>-2.6100000999999997</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.28000009999999997</v>
+      </c>
+      <c r="C76" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.4676830136263193</v>
+      </c>
+      <c r="D76" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.26473236172813586</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>-2.5300001000000001</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.44000009999999995</v>
+      </c>
+      <c r="C77" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.3920452230032057</v>
+      </c>
+      <c r="D77" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.416007942974363</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>-2.5100001000000001</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.5600001</v>
+      </c>
+      <c r="C78" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.3731357753474271</v>
+      </c>
+      <c r="D78" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.52946462890903345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>-2.4100001</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.96000010000000002</v>
+      </c>
+      <c r="C79" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.278588537068535</v>
+      </c>
+      <c r="D79" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.90765358202460145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>-2.3700000999999999</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1.0800000999999999</v>
+      </c>
+      <c r="C80" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.2407696417569785</v>
+      </c>
+      <c r="D80" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.0211102679592718</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>-2.2700000999999999</v>
+      </c>
+      <c r="B81" s="1">
+        <v>1.2800001000000001</v>
+      </c>
+      <c r="C81" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.1462224034780863</v>
+      </c>
+      <c r="D81" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.2102047445170561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>-2.2500001000000003</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1.3000000999999999</v>
+      </c>
+      <c r="C82" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.1273129558223083</v>
+      </c>
+      <c r="D82" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.2291141921728341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>-2.2300001000000003</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1.3400000999999999</v>
+      </c>
+      <c r="C83" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-2.1084035081665302</v>
+      </c>
+      <c r="D83" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.2669330874843909</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>-2.0600000999999999</v>
+      </c>
+      <c r="B84" s="1">
+        <v>1.5100001000000001</v>
+      </c>
+      <c r="C84" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.9476732030924133</v>
+      </c>
+      <c r="D84" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.4276633925585074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>-2.0300001000000001</v>
+      </c>
+      <c r="B85" s="1">
+        <v>1.5200001000000001</v>
+      </c>
+      <c r="C85" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.9193090316087458</v>
+      </c>
+      <c r="D85" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.4371181163863966</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>-1.9700001</v>
+      </c>
+      <c r="B86" s="1">
+        <v>1.6400001</v>
+      </c>
+      <c r="C86" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.8625806886414105</v>
+      </c>
+      <c r="D86" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.5505748023210668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>-1.9500001</v>
+      </c>
+      <c r="B87" s="1">
+        <v>1.6600001</v>
+      </c>
+      <c r="C87" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.8436712409856322</v>
+      </c>
+      <c r="D87" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.5694842499768453</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>-1.9300001000000002</v>
+      </c>
+      <c r="B88" s="1">
+        <v>1.7000001</v>
+      </c>
+      <c r="C88" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.8247617933298539</v>
+      </c>
+      <c r="D88" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.6073031452884021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>-1.9100001</v>
+      </c>
+      <c r="B89" s="1">
+        <v>1.7200001</v>
+      </c>
+      <c r="C89" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.8058523456740752</v>
+      </c>
+      <c r="D89" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.6262125929441806</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>-1.8900001</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1.7600000999999998</v>
+      </c>
+      <c r="C90" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.7869428980182969</v>
+      </c>
+      <c r="D90" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.6640314882557374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>-1.6600001</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1.9900001</v>
+      </c>
+      <c r="C91" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.5694842499768453</v>
+      </c>
+      <c r="D91" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.881490136297189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>-1.6200000999999999</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2.0100001000000001</v>
+      </c>
+      <c r="C92" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.5316653546652885</v>
+      </c>
+      <c r="D92" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.9003995839529673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>-1.6000001000000001</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2.0300001000000001</v>
+      </c>
+      <c r="C93" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.5127559070095102</v>
+      </c>
+      <c r="D93" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.9193090316087458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>-1.5600001000000001</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2.0500001000000001</v>
+      </c>
+      <c r="C94" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.4749370116979534</v>
+      </c>
+      <c r="D94" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.9382184792645243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>-1.5400000999999999</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2.0700001000000001</v>
+      </c>
+      <c r="C95" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.4560275640421749</v>
+      </c>
+      <c r="D95" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.9571279269203026</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>-1.3400000999999999</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2.1700001000000002</v>
+      </c>
+      <c r="C96" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.2669330874843909</v>
+      </c>
+      <c r="D96" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.0516751651991947</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>-1.3200001000000001</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2.1900000999999998</v>
+      </c>
+      <c r="C97" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.2480236398286129</v>
+      </c>
+      <c r="D97" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.0705846128549728</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>-1.2800001000000001</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2.2100000999999998</v>
+      </c>
+      <c r="C98" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.2102047445170561</v>
+      </c>
+      <c r="D98" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.0894940605107513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>-1.2600001000000001</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2.2300001000000003</v>
+      </c>
+      <c r="C99" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.1912952968612776</v>
+      </c>
+      <c r="D99" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.1084035081665302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>-1.2200001</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2.2500001000000003</v>
+      </c>
+      <c r="C100" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.1534764015497208</v>
+      </c>
+      <c r="D100" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.1273129558223083</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>-1.2000001</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2.2700000999999999</v>
+      </c>
+      <c r="C101" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.1345669538939422</v>
+      </c>
+      <c r="D101" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.1462224034780863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>-1.0800000999999999</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2.3300001000000004</v>
+      </c>
+      <c r="C102" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-1.0211102679592718</v>
+      </c>
+      <c r="D102" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.2029507464454223</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>-0.96000010000000002</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2.3700000999999999</v>
+      </c>
+      <c r="C103" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.90765358202460145</v>
+      </c>
+      <c r="D103" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.2407696417569785</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>-0.88000009999999995</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2.3900001</v>
+      </c>
+      <c r="C104" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.83201579140148785</v>
+      </c>
+      <c r="D104" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.259679089412757</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>-0.78000009999999997</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2.4100001</v>
+      </c>
+      <c r="C105" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.73746855312259585</v>
+      </c>
+      <c r="D105" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.278588537068535</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>-0.54000009999999998</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2.4500001</v>
+      </c>
+      <c r="C106" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.51055518125325505</v>
+      </c>
+      <c r="D106" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.3164074323800921</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>-0.40000010000000003</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2.4700001</v>
+      </c>
+      <c r="C107" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.37818904766280631</v>
+      </c>
+      <c r="D107" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.3353168800358706</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>-0.26000009999999996</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2.4800001000000003</v>
+      </c>
+      <c r="C108" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.24582291407235743</v>
+      </c>
+      <c r="D108" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.34477160386376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>-0.26000009999999996</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2.5000001000000003</v>
+      </c>
+      <c r="C109" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>-0.24582291407235743</v>
+      </c>
+      <c r="D109" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.3636810515195386</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>0.28000010000000103</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2.4900001</v>
+      </c>
+      <c r="C110" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.26473236172813686</v>
+      </c>
+      <c r="D110" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.3542263276916491</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>0.44000009999999995</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2.4500001</v>
+      </c>
+      <c r="C111" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.416007942974363</v>
+      </c>
+      <c r="D111" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.3164074323800921</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>0.560000100000001</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2.3900001</v>
+      </c>
+      <c r="C112" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.52946462890903445</v>
+      </c>
+      <c r="D112" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.259679089412757</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>0.62000010000000005</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2.3700000999999999</v>
+      </c>
+      <c r="C113" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.58619297187636865</v>
+      </c>
+      <c r="D113" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.2407696417569785</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>0.72000010000000003</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2.3500000999999999</v>
+      </c>
+      <c r="C114" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.68074021015526076</v>
+      </c>
+      <c r="D114" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.2218601941012004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>0.88000010000000106</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2.3100000999999999</v>
+      </c>
+      <c r="C115" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0.83201579140148885</v>
+      </c>
+      <c r="D115" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.1840412987896434</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>1.0800000999999999</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2.2100000999999998</v>
+      </c>
+      <c r="C116" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.0211102679592718</v>
+      </c>
+      <c r="D116" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.0894940605107513</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1.1200000999999999</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2.1700001000000002</v>
+      </c>
+      <c r="C117" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.0589291632708286</v>
+      </c>
+      <c r="D117" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.0516751651991947</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>1.1600001</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2.1500001000000002</v>
+      </c>
+      <c r="C118" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.0967480585823854</v>
+      </c>
+      <c r="D118" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>2.0327657175434162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>1.2400001</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2.0700001000000001</v>
+      </c>
+      <c r="C119" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.172385849205499</v>
+      </c>
+      <c r="D119" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.9571279269203026</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>1.4400001</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1.9700001</v>
+      </c>
+      <c r="C120" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.3614803257632828</v>
+      </c>
+      <c r="D120" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.8625806886414105</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>1.4600001</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1.9500001</v>
+      </c>
+      <c r="C121" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.3803897734190613</v>
+      </c>
+      <c r="D121" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.8436712409856322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>1.5400000999999999</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1.9300001000000002</v>
+      </c>
+      <c r="C122" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.4560275640421749</v>
+      </c>
+      <c r="D122" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.8247617933298539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>1.7400001</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1.8300001000000001</v>
+      </c>
+      <c r="C123" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.6451220405999589</v>
+      </c>
+      <c r="D123" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.7302145550509618</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>1.7800001000000001</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1.7900000999999999</v>
+      </c>
+      <c r="C124" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.6829409359115157</v>
+      </c>
+      <c r="D124" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.692395659739405</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>1.8200001000000001</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1.7700001000000001</v>
+      </c>
+      <c r="C125" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.7207598312230727</v>
+      </c>
+      <c r="D125" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.6734862120836267</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>1.9400001</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1.6500001000000002</v>
+      </c>
+      <c r="C126" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.8342165171577429</v>
+      </c>
+      <c r="D126" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.5600295261489563</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>1.9800001000000003</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1.6300001000000002</v>
+      </c>
+      <c r="C127" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.8720354124692999</v>
+      </c>
+      <c r="D127" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.541120078493178</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>2.0200000999999999</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.5900000999999999</v>
+      </c>
+      <c r="C128" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.9098543077808565</v>
+      </c>
+      <c r="D128" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.503301183181621</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>2.0600000999999999</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1.5700001000000001</v>
+      </c>
+      <c r="C129" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>1.9476732030924133</v>
+      </c>
+      <c r="D129" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.4843917355258427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>2.1500001000000002</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1.4800001</v>
+      </c>
+      <c r="C130" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.0327657175434162</v>
+      </c>
+      <c r="D130" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.3992992210748398</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>2.1700001000000002</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1.4400001</v>
+      </c>
+      <c r="C131" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.0516751651991947</v>
+      </c>
+      <c r="D131" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.3614803257632828</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>2.2100000999999998</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1.4000001</v>
+      </c>
+      <c r="C132" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.0894940605107513</v>
+      </c>
+      <c r="D132" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.323661430451726</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>2.3100000999999999</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.2000001</v>
+      </c>
+      <c r="C133" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.1840412987896434</v>
+      </c>
+      <c r="D133" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>1.1345669538939422</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>2.3900001</v>
+      </c>
+      <c r="B134" s="1">
+        <v>0.88000009999999995</v>
+      </c>
+      <c r="C134" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.259679089412757</v>
+      </c>
+      <c r="D134" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.83201579140148785</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>2.4100001</v>
+      </c>
+      <c r="B135" s="1">
+        <v>0.78000009999999997</v>
+      </c>
+      <c r="C135" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.278588537068535</v>
+      </c>
+      <c r="D135" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.73746855312259585</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>2.4300001</v>
+      </c>
+      <c r="B136" s="1">
+        <v>0.76000009999999996</v>
+      </c>
+      <c r="C136" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.2974979847243135</v>
+      </c>
+      <c r="D136" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.71855910546681745</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>2.5100001000000001</v>
+      </c>
+      <c r="B137" s="1">
+        <v>0.60000010000000004</v>
+      </c>
+      <c r="C137" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.3731357753474271</v>
+      </c>
+      <c r="D137" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.56728352422059036</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>2.5500001000000001</v>
+      </c>
+      <c r="B138" s="1">
+        <v>0.44000009999999995</v>
+      </c>
+      <c r="C138" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>2.4109546706589842</v>
+      </c>
+      <c r="D138" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0.416007942974363</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D143" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D147" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D151" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D152" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D153" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D154" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D155" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D157" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D158" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D159" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D161" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D163" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D165" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D166" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D167" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D168" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D169" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D170" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D171" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D172" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D173" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D174" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D175" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D176" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D177" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D178" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D179" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D180" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D181" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D182" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D183" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D184" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D185" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D186" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D187" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D188" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D189" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D190" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D191" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D192" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D193" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D194" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D195" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D197" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D198" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D199" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D200" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D201" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D202" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D203" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D204" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D205" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D206" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D207" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D208" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D209" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D210" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D211" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D212" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D213" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D214" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D215" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D216" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D218" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D219" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D220" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D221" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D222" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D223" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D224" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D225" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D226" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D227" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D228" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D229" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D230" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D231" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D232" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D233" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D234" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D235" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D236" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D237" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D238" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D239" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D240" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D241" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D242" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D243" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D244" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D245" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D246" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D247" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D248" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D249" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D250" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D251" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D252" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D253" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D254" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D255" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D256" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1">
+        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
+        <v>0</v>
+      </c>
+      <c r="D257" s="1">
+        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4253,42 +10668,42 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="18">
         <v>4004</v>
@@ -4303,16 +10718,16 @@
         <v>95</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="18">
         <v>4094</v>
       </c>
       <c r="I3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="K3" s="24">
         <v>2.5</v>
@@ -4320,10 +10735,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="18">
         <v>4003</v>
@@ -4338,16 +10753,16 @@
         <v>95</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H4" s="18">
         <v>4094</v>
       </c>
       <c r="I4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="K4" s="24">
         <v>2.5</v>
@@ -4355,10 +10770,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="18">
         <v>4002</v>
@@ -4373,16 +10788,16 @@
         <v>95</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="18">
         <v>4094</v>
       </c>
       <c r="I5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="K5" s="24">
         <v>2.5</v>
@@ -4390,10 +10805,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="18">
         <v>4001</v>
@@ -4408,16 +10823,16 @@
         <v>95</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="18">
         <v>4094</v>
       </c>
       <c r="I6" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="K6" s="24">
         <v>2.5</v>
@@ -4425,10 +10840,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="26">
         <v>4000</v>
@@ -4443,16 +10858,16 @@
         <v>95</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H7" s="26">
         <v>126</v>
       </c>
       <c r="I7" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="K7" s="28">
         <v>2.5</v>

--- a/Output/CutOut Size Check Test.xlsx
+++ b/Output/CutOut Size Check Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\Documents\Python Scripts\ElectronCutout\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Greg\OneDrive - Queen's University\Work\Plan Checking tools\ElectronCutout\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84D713AE-F115-4E8F-8284-B6C099E724F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8A7BB8-5383-4B41-AEF7-129149846F03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="705" windowWidth="19440" windowHeight="15150" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="705" windowWidth="19440" windowHeight="15150" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan Data" sheetId="9" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="109">
   <si>
     <t>Plan</t>
   </si>
@@ -96,6 +96,9 @@
     <t>Expected Dimensions to Top of Insert</t>
   </si>
   <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>RadiationType</t>
   </si>
   <si>
@@ -252,48 +255,15 @@
     <t>FFDA(A06)</t>
   </si>
   <si>
-    <t>ElectronCutoutTest2 (CutoutTest2)</t>
-  </si>
-  <si>
-    <t>ElectronCutoutTest3 (CutoutTest3)</t>
-  </si>
-  <si>
-    <t>ElectronCutoutTest4 (CutoutTest4)</t>
-  </si>
-  <si>
-    <t>ElectronCutoutQA (ElectronCutout)</t>
-  </si>
-  <si>
-    <t>ElectronQA1 (ElectronQA1)</t>
-  </si>
-  <si>
-    <t>SHOR-6+9</t>
-  </si>
-  <si>
     <t>NOSE</t>
   </si>
   <si>
-    <t>SCPR</t>
-  </si>
-  <si>
-    <t>GA 260-9</t>
-  </si>
-  <si>
-    <t>GA 260-6</t>
-  </si>
-  <si>
     <t>GA45 9MeV</t>
   </si>
   <si>
     <t>GA45 6MEV</t>
   </si>
   <si>
-    <t>GA 250 -9MEV</t>
-  </si>
-  <si>
-    <t>GA 250 -6MEV</t>
-  </si>
-  <si>
     <t>FieldType</t>
   </si>
   <si>
@@ -360,15 +330,9 @@
     <t>ApplicatorOpening</t>
   </si>
   <si>
-    <t>Block1</t>
-  </si>
-  <si>
     <t>CUSTOM</t>
   </si>
   <si>
-    <t>INSERT</t>
-  </si>
-  <si>
     <t>APERTURE</t>
   </si>
   <si>
@@ -378,9 +342,6 @@
     <t>BlockMountingPosition</t>
   </si>
   <si>
-    <t>SOURCE_SIDE</t>
-  </si>
-  <si>
     <t>PATIENT_SIDE</t>
   </si>
   <si>
@@ -414,31 +375,10 @@
     <t>PatientId</t>
   </si>
   <si>
-    <t>CutoutTest2</t>
-  </si>
-  <si>
-    <t>CutoutTest3</t>
-  </si>
-  <si>
-    <t>CutoutTest4</t>
-  </si>
-  <si>
     <t>ElectronCutout</t>
   </si>
   <si>
-    <t>ElectronQA1</t>
-  </si>
-  <si>
     <t>PatientName</t>
-  </si>
-  <si>
-    <t>ElectronCutoutTest2</t>
-  </si>
-  <si>
-    <t>ElectronCutoutTest3</t>
-  </si>
-  <si>
-    <t>ElectronCutoutTest4</t>
   </si>
   <si>
     <t>ElectronCutoutQA</t>
@@ -1764,10 +1704,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CutOut Coordinates'!$C$3:$C$257</c:f>
+              <c:f>'CutOut Coordinates'!$C$3:$C$138</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="255"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
                   <c:v>2.4109546706589842</c:v>
                 </c:pt>
@@ -2175,373 +2115,16 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>2.4109546706589842</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CutOut Coordinates'!$D$3:$D$257</c:f>
+              <c:f>'CutOut Coordinates'!$D$3:$D$138</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="255"/>
+                <c:ptCount val="136"/>
                 <c:pt idx="0">
                   <c:v>0.416007942974363</c:v>
                 </c:pt>
@@ -2949,363 +2532,6 @@
                 </c:pt>
                 <c:pt idx="135">
                   <c:v>0.416007942974363</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4045,7 +3271,7 @@
         <xdr:cNvPr id="6" name="Cutout">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D56E545-1C26-4DAF-B030-F11182633B77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2200F66A-68CD-41A3-850B-F2A2B59A2336}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,7 +3322,7 @@
         <xdr:cNvPr id="7" name="Group 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A982280-BD47-4260-A0FF-3681926063B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C61136BF-1718-4EE8-8C72-F11451302CAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,15 +3420,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>205435</xdr:colOff>
+      <xdr:colOff>110185</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>96792</xdr:rowOff>
+      <xdr:rowOff>134892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>536635</xdr:colOff>
+      <xdr:colOff>441385</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>94617</xdr:rowOff>
+      <xdr:rowOff>132717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4233,7 +3459,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CutoutCoord" displayName="CutoutCoord" ref="A2:D257" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CutoutCoord" displayName="CutoutCoord" ref="A2:D138" totalsRowShown="0">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="X" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Y" dataDxfId="17"/>
@@ -4529,328 +3755,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA3173C-C7B8-48E7-ADBC-92B0989A5C65}">
-  <dimension ref="A1:K44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5ABC22-82EC-498C-9C6E-03126EB49FFE}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C4" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>100</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>100</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>86</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4858,1129 +3869,350 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>345</v>
-      </c>
-      <c r="E14">
-        <v>345</v>
-      </c>
-      <c r="F14">
-        <v>216</v>
-      </c>
-      <c r="G14">
-        <v>216</v>
-      </c>
-      <c r="H14">
-        <v>345</v>
-      </c>
-      <c r="I14">
-        <v>345</v>
-      </c>
-      <c r="J14">
-        <v>216</v>
-      </c>
-      <c r="K14">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>600</v>
-      </c>
-      <c r="D15">
-        <v>600</v>
-      </c>
-      <c r="E15">
-        <v>600</v>
-      </c>
-      <c r="F15">
-        <v>600</v>
-      </c>
-      <c r="G15">
-        <v>600</v>
-      </c>
-      <c r="H15">
-        <v>600</v>
-      </c>
-      <c r="I15">
-        <v>600</v>
-      </c>
-      <c r="J15">
-        <v>600</v>
-      </c>
-      <c r="K15">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16">
-        <v>260</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>260</v>
-      </c>
-      <c r="D16">
-        <v>45</v>
-      </c>
-      <c r="E16">
-        <v>45</v>
-      </c>
-      <c r="F16">
-        <v>250</v>
-      </c>
-      <c r="G16">
-        <v>250</v>
-      </c>
-      <c r="H16">
-        <v>45</v>
-      </c>
-      <c r="I16">
-        <v>45</v>
-      </c>
-      <c r="J16">
-        <v>250</v>
-      </c>
-      <c r="K16">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>345</v>
       </c>
       <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="I17">
-        <v>6</v>
-      </c>
-      <c r="J17">
-        <v>9</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>100.452761721108</v>
       </c>
       <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>345</v>
-      </c>
-      <c r="E18">
-        <v>345</v>
-      </c>
-      <c r="F18">
-        <v>76</v>
-      </c>
-      <c r="G18">
-        <v>76</v>
-      </c>
-      <c r="H18">
-        <v>345</v>
-      </c>
-      <c r="I18">
-        <v>345</v>
-      </c>
-      <c r="J18">
-        <v>76</v>
-      </c>
-      <c r="K18">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100.452761721108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19">
-        <v>100.5</v>
-      </c>
-      <c r="C19">
-        <v>100.5</v>
-      </c>
-      <c r="D19">
-        <v>100.452761721108</v>
-      </c>
-      <c r="E19">
-        <v>100.452761721108</v>
-      </c>
-      <c r="F19">
-        <v>105.54324140148799</v>
-      </c>
-      <c r="G19">
-        <v>105.54324140148799</v>
-      </c>
-      <c r="H19">
-        <v>100.452761721108</v>
-      </c>
-      <c r="I19">
-        <v>100.452761721108</v>
-      </c>
-      <c r="J19">
-        <v>105.54324140148799</v>
-      </c>
-      <c r="K19">
-        <v>105.54324140148799</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>4000</v>
+      </c>
+      <c r="C20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>4001</v>
-      </c>
-      <c r="C21">
-        <v>4001</v>
-      </c>
-      <c r="D21">
-        <v>4000</v>
-      </c>
-      <c r="E21">
-        <v>4000</v>
-      </c>
-      <c r="F21">
-        <v>4001</v>
-      </c>
-      <c r="G21">
-        <v>4001</v>
-      </c>
-      <c r="H21">
-        <v>4000</v>
-      </c>
-      <c r="I21">
-        <v>4000</v>
-      </c>
-      <c r="J21">
-        <v>4001</v>
-      </c>
-      <c r="K21">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" t="s">
-        <v>62</v>
-      </c>
-      <c r="J22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G23" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
-      </c>
-      <c r="J23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" t="s">
-        <v>98</v>
-      </c>
-      <c r="K24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>10</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>6</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" t="s">
-        <v>101</v>
-      </c>
-      <c r="J26" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" t="s">
-        <v>63</v>
-      </c>
-      <c r="I27" t="s">
-        <v>63</v>
-      </c>
-      <c r="J27" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>126</v>
+      </c>
+      <c r="C29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>95</v>
+      </c>
+      <c r="C31">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>2.5</v>
+      </c>
+      <c r="C33">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>92.5</v>
+      </c>
+      <c r="C34">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36">
+        <v>234.84386534652199</v>
+      </c>
+      <c r="C36">
+        <v>160.197360616591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37">
+        <v>2.1</v>
+      </c>
+      <c r="C37">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C40" t="s">
         <v>103</v>
       </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>4094</v>
-      </c>
-      <c r="C30">
-        <v>4094</v>
-      </c>
-      <c r="D30">
-        <v>126</v>
-      </c>
-      <c r="E30">
-        <v>126</v>
-      </c>
-      <c r="F30">
-        <v>4094</v>
-      </c>
-      <c r="G30">
-        <v>4094</v>
-      </c>
-      <c r="H30">
-        <v>126</v>
-      </c>
-      <c r="I30">
-        <v>126</v>
-      </c>
-      <c r="J30">
-        <v>126</v>
-      </c>
-      <c r="K30">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>104</v>
       </c>
-      <c r="C31" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" t="s">
-        <v>104</v>
-      </c>
-      <c r="K31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>95</v>
-      </c>
-      <c r="C32">
-        <v>95</v>
-      </c>
-      <c r="D32">
-        <v>95</v>
-      </c>
-      <c r="E32">
-        <v>95</v>
-      </c>
-      <c r="F32">
-        <v>95</v>
-      </c>
-      <c r="G32">
-        <v>95</v>
-      </c>
-      <c r="H32">
-        <v>95</v>
-      </c>
-      <c r="I32">
-        <v>95</v>
-      </c>
-      <c r="J32">
-        <v>95</v>
-      </c>
-      <c r="K32">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>106</v>
       </c>
-      <c r="C33" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B42" t="s">
         <v>107</v>
       </c>
-      <c r="E33" t="s">
+      <c r="C42" t="s">
         <v>107</v>
       </c>
-      <c r="F33" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" t="s">
-        <v>107</v>
-      </c>
-      <c r="J33" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>108</v>
-      </c>
-      <c r="B34">
-        <v>2.5</v>
-      </c>
-      <c r="C34">
-        <v>2.5</v>
-      </c>
-      <c r="D34">
-        <v>2.5</v>
-      </c>
-      <c r="E34">
-        <v>2.5</v>
-      </c>
-      <c r="F34">
-        <v>2.5</v>
-      </c>
-      <c r="G34">
-        <v>2.5</v>
-      </c>
-      <c r="H34">
-        <v>2.5</v>
-      </c>
-      <c r="I34">
-        <v>2.5</v>
-      </c>
-      <c r="J34">
-        <v>2.5</v>
-      </c>
-      <c r="K34">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35">
-        <v>97.5</v>
-      </c>
-      <c r="C35">
-        <v>97.5</v>
-      </c>
-      <c r="D35">
-        <v>92.5</v>
-      </c>
-      <c r="E35">
-        <v>92.5</v>
-      </c>
-      <c r="F35">
-        <v>92.5</v>
-      </c>
-      <c r="G35">
-        <v>92.5</v>
-      </c>
-      <c r="H35">
-        <v>92.5</v>
-      </c>
-      <c r="I35">
-        <v>92.5</v>
-      </c>
-      <c r="J35">
-        <v>92.5</v>
-      </c>
-      <c r="K35">
-        <v>92.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37">
-        <v>177.88507684996301</v>
-      </c>
-      <c r="C37">
-        <v>43.3431899062073</v>
-      </c>
-      <c r="D37">
-        <v>234.84386534652199</v>
-      </c>
-      <c r="E37">
-        <v>160.197360616591</v>
-      </c>
-      <c r="F37">
-        <v>175.76</v>
-      </c>
-      <c r="G37">
-        <v>178.608</v>
-      </c>
-      <c r="H37">
-        <v>234.84386534652199</v>
-      </c>
-      <c r="I37">
-        <v>160.197360616591</v>
-      </c>
-      <c r="J37">
-        <v>175.75999427295</v>
-      </c>
-      <c r="K37">
-        <v>178.60762211624501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38">
-        <v>1.6</v>
-      </c>
-      <c r="C38">
-        <v>0.4</v>
-      </c>
-      <c r="D38">
-        <v>2.1</v>
-      </c>
-      <c r="E38">
-        <v>1.4</v>
-      </c>
-      <c r="F38">
-        <v>1.37494269066113</v>
-      </c>
-      <c r="G38">
-        <v>1.37505730933887</v>
-      </c>
-      <c r="H38">
-        <v>2.1</v>
-      </c>
-      <c r="I38">
-        <v>1.4</v>
-      </c>
-      <c r="J38">
-        <v>1.375</v>
-      </c>
-      <c r="K38">
-        <v>1.375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" t="s">
-        <v>113</v>
-      </c>
-      <c r="F39" t="s">
-        <v>113</v>
-      </c>
-      <c r="G39" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" t="s">
-        <v>113</v>
-      </c>
-      <c r="J39" t="s">
-        <v>113</v>
-      </c>
-      <c r="K39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" t="s">
-        <v>116</v>
-      </c>
-      <c r="J41" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" t="s">
-        <v>118</v>
-      </c>
-      <c r="D42" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" t="s">
-        <v>120</v>
-      </c>
-      <c r="G42" t="s">
-        <v>120</v>
-      </c>
-      <c r="H42" t="s">
-        <v>121</v>
-      </c>
-      <c r="I42" t="s">
-        <v>121</v>
-      </c>
-      <c r="J42" t="s">
-        <v>122</v>
-      </c>
-      <c r="K42" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" t="s">
-        <v>127</v>
-      </c>
-      <c r="I43" t="s">
-        <v>127</v>
-      </c>
-      <c r="J43" t="s">
-        <v>122</v>
-      </c>
-      <c r="K43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5992,14 +4224,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="O1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="16" customWidth="1"/>
     <col min="17" max="17" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6009,7 +4241,7 @@
       </c>
       <c r="P1" s="32" t="str">
         <f>Plan</f>
-        <v>ElectronCutoutTest2 (CutoutTest2)</v>
+        <v>NOSE</v>
       </c>
     </row>
     <row r="2" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6018,7 +4250,7 @@
       </c>
       <c r="P2" s="34" t="str">
         <f>Field</f>
-        <v>SHOR-6+9</v>
+        <v>GA45 9MeV</v>
       </c>
     </row>
     <row r="3" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6035,26 +4267,26 @@
       <c r="O5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="38" t="str">
         <f>ApplicatorID</f>
-        <v>260</v>
-      </c>
-      <c r="Q5" s="39" t="str">
+        <v>A06</v>
+      </c>
+      <c r="Q5" s="39">
         <f>AccessoryCode</f>
-        <v>A10</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="6" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="41" t="str">
         <f>BlockTrayID</f>
-        <v>4001</v>
-      </c>
-      <c r="Q6" s="42" t="str">
+        <v>FFDA(A06)</v>
+      </c>
+      <c r="Q6" s="42">
         <f>InsertCode</f>
-        <v>FFDA(A10+)</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6064,7 +4296,7 @@
       </c>
       <c r="P8" s="43">
         <f>Cutout_Eq._Sq.</f>
-        <v>0</v>
+        <v>4.7941125621430576</v>
       </c>
     </row>
     <row r="9" spans="15:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6168,10 +4400,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6181,661 +4413,329 @@
     <col min="5" max="6" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="59" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F1" s="59"/>
-      <c r="G1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="E3" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","ELECTRON")</f>
+        <v>ELECTRON</v>
+      </c>
+      <c r="F3" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","ELECTRON")</f>
+        <v>ELECTRON</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","FIXED_SSD")</f>
+        <v>FIXED_SSD</v>
+      </c>
+      <c r="F4" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","FIXED_SSD")</f>
+        <v>FIXED_SSD</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","ELECTRON PLANNED")</f>
+        <v>ELECTRON PLANNED</v>
+      </c>
+      <c r="F5" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","ELECTRON PLANNED")</f>
+        <v>ELECTRON PLANNED</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="C6" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E6" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","TR2, TR3")</f>
+        <v>TR2, TR3</v>
+      </c>
+      <c r="F6" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","TR2, TR3")</f>
+        <v>TR2, TR3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16">
+        <v>9</v>
+      </c>
+      <c r="C7" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="16">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C8" s="16">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>9</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16">
-        <v>260</v>
-      </c>
-      <c r="C9" s="16">
-        <v>260</v>
-      </c>
-      <c r="D9">
-        <v>45</v>
-      </c>
-      <c r="E9" s="29">
-        <v>45</v>
-      </c>
-      <c r="F9" s="29">
-        <v>250</v>
-      </c>
-      <c r="G9">
-        <v>250</v>
-      </c>
-      <c r="H9">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>45</v>
-      </c>
-      <c r="J9">
-        <v>250</v>
-      </c>
-      <c r="K9">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","A06, A10, A15, A20, A25")</f>
+        <v>A06, A10, A15, A20, A25</v>
+      </c>
+      <c r="F9" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","A06, A10, A15, A20, A25")</f>
+        <v>A06, A10, A15, A20, A25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
-      </c>
-      <c r="I10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B10" s="16">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="16">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="29">
+        <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],3,FALSE))</f>
+        <v>4000</v>
+      </c>
+      <c r="F10" s="29">
+        <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],3,FALSE))</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="16">
-        <v>4001</v>
-      </c>
-      <c r="C11" s="16">
-        <v>4001</v>
-      </c>
-      <c r="D11">
-        <v>4000</v>
-      </c>
-      <c r="E11" s="29">
-        <v>4000</v>
-      </c>
-      <c r="F11" s="29">
-        <v>4001</v>
-      </c>
-      <c r="G11">
-        <v>4001</v>
-      </c>
-      <c r="H11">
-        <v>4000</v>
-      </c>
-      <c r="I11">
-        <v>4000</v>
-      </c>
-      <c r="J11">
-        <v>4001</v>
-      </c>
-      <c r="K11">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="29" t="str">
+        <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],7,FALSE))</f>
+        <v>FFDA(A06)</v>
+      </c>
+      <c r="F11" s="29" t="str">
+        <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],7,FALSE))</f>
+        <v>FFDA(A06)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="B12" s="16">
+        <v>126</v>
+      </c>
+      <c r="C12" s="16">
+        <v>126</v>
+      </c>
+      <c r="E12" s="29">
+        <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],8,FALSE))</f>
+        <v>126</v>
+      </c>
+      <c r="F12" s="29">
+        <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],8,FALSE))</f>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="16">
-        <v>4094</v>
-      </c>
-      <c r="C13" s="16">
-        <v>4094</v>
-      </c>
-      <c r="D13">
-        <v>126</v>
-      </c>
-      <c r="E13" s="29">
-        <v>126</v>
-      </c>
-      <c r="F13" s="29">
-        <v>4094</v>
-      </c>
-      <c r="G13">
-        <v>4094</v>
-      </c>
-      <c r="H13">
-        <v>126</v>
-      </c>
-      <c r="I13">
-        <v>126</v>
-      </c>
-      <c r="J13">
-        <v>126</v>
-      </c>
-      <c r="K13">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","APERTURE")</f>
+        <v>APERTURE</v>
+      </c>
+      <c r="F13" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","APERTURE")</f>
+        <v>APERTURE</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
-        <v>103</v>
-      </c>
-      <c r="H14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="E14" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","Cut-out")</f>
+        <v>Cut-out</v>
+      </c>
+      <c r="F14" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","Cut-out")</f>
+        <v>Cut-out</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E15" s="29" t="str">
+        <f>IF(ISBLANK(B9),"","PRESENT")</f>
+        <v>PRESENT</v>
+      </c>
+      <c r="F15" s="29" t="str">
+        <f>IF(ISBLANK(C9),"","PRESENT")</f>
+        <v>PRESENT</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" t="s">
-        <v>104</v>
-      </c>
-      <c r="G16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
+        <v>27</v>
+      </c>
+      <c r="B17" s="16">
         <v>95</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C17" s="16">
         <v>95</v>
       </c>
-      <c r="D18">
+      <c r="E17" s="29">
+        <f>IF(ISBLANK(B9),"",95)</f>
         <v>95</v>
       </c>
-      <c r="E18">
+      <c r="F17" s="29">
+        <f>IF(ISBLANK(C9),"",95)</f>
         <v>95</v>
       </c>
-      <c r="F18">
-        <v>95</v>
-      </c>
-      <c r="G18">
-        <v>95</v>
-      </c>
-      <c r="H18">
-        <v>95</v>
-      </c>
-      <c r="I18">
-        <v>95</v>
-      </c>
-      <c r="J18">
-        <v>95</v>
-      </c>
-      <c r="K18">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="30"/>
+        <v>28</v>
+      </c>
+      <c r="B20" s="30">
+        <v>19.13910195200005</v>
+      </c>
       <c r="C20" s="30"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="30"/>
+        <v>29</v>
+      </c>
+      <c r="B21" s="30">
+        <v>15.968838198028889</v>
+      </c>
       <c r="C21" s="30"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="30">
+        <v>4.7941125621430576</v>
+      </c>
       <c r="C22" s="30"/>
-      <c r="E22" s="29" t="e">
+      <c r="E22" s="29">
         <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],4,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F22" s="29" t="e">
+        <v>6</v>
+      </c>
+      <c r="F22" s="29">
         <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],4,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -6843,13 +4743,13 @@
         <v>2.6600001</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="E23" s="29" t="e">
+      <c r="E23" s="29">
         <f>IF(ISBLANK(B9),"",VLOOKUP(B9,ApplicatorLookup[],4,FALSE)/2)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F23" s="29" t="e">
+        <v>3</v>
+      </c>
+      <c r="F23" s="29">
         <f>IF(ISBLANK(C9),"",VLOOKUP(C9,ApplicatorLookup[],4,FALSE)/2)</f>
-        <v>#N/A</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6863,10 +4763,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K257"/>
+  <dimension ref="A1:K138"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6880,18 +4780,18 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1">
         <f>bottom_of_electron_insert</f>
         <v>94.547238278891996</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="62"/>
       <c r="K1" s="63"/>
@@ -6904,25 +4804,25 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J2" s="11">
         <v>93</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -6949,13 +4849,13 @@
         <v>2.5000001000000003</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J3" s="11">
         <v>95</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6982,13 +4882,13 @@
         <v>-2.3000001000000001</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="12">
         <v>96.8</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7033,7 +4933,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="I6" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="13">
         <v>100.452761721108</v>
@@ -7055,7 +4955,7 @@
         <v>-0.16073039962135469</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" s="14">
         <v>6</v>
@@ -7109,7 +5009,7 @@
         <v>-0.416007942974363</v>
       </c>
       <c r="I10" s="61" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="63"/>
     </row>
@@ -7129,7 +5029,7 @@
         <v>-0.58619297187636865</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" s="15">
         <f>Source_to_bottom_of_electron_insert-(SSD-100)</f>
@@ -7153,7 +5053,7 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" s="8">
         <f>Source_to_top_of_electron_insert-(SSD-100)</f>
@@ -9174,1434 +7074,6 @@
       <c r="D138" s="1">
         <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
         <v>0.416007942974363</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D139" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D140" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D141" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D142" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D143" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D144" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D145" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D146" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D147" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D148" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D149" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D150" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D151" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D152" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D153" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D154" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D155" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D156" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D157" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D158" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D159" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D160" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D161" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D162" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D163" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D164" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D165" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D166" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D167" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D168" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D169" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D170" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D171" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D172" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D173" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D174" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D175" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D176" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D177" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D178" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D179" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D180" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D181" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D182" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D183" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D184" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D185" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D186" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D187" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D188" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D189" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D190" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D191" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D192" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D193" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D194" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D195" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D196" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D197" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D198" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D199" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D200" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D201" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D202" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D203" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D204" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D205" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D206" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D207" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D208" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D209" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D210" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D211" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D212" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D213" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D214" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D215" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D216" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D217" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D218" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D219" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D220" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D221" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D222" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D223" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D224" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D225" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D226" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D227" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D228" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D229" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D230" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D231" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D232" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D233" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D234" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D235" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D236" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D237" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D238" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D239" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D240" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D241" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D242" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D243" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D244" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D245" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D246" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D247" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D248" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D249" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D250" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D251" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D252" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D253" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D254" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D255" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D256" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1">
-        <f>CutoutCoord[[#This Row],[X]]*$D$1/100</f>
-        <v>0</v>
-      </c>
-      <c r="D257" s="1">
-        <f>CutoutCoord[[#This Row],[Y]]*$D$1/100</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10668,42 +7140,42 @@
         <v>2</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="18">
         <v>4004</v>
@@ -10718,16 +7190,16 @@
         <v>95</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="18">
         <v>4094</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K3" s="24">
         <v>2.5</v>
@@ -10735,10 +7207,10 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="18">
         <v>4003</v>
@@ -10753,16 +7225,16 @@
         <v>95</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H4" s="18">
         <v>4094</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" s="24">
         <v>2.5</v>
@@ -10770,10 +7242,10 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="18">
         <v>4002</v>
@@ -10788,16 +7260,16 @@
         <v>95</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" s="18">
         <v>4094</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" s="24">
         <v>2.5</v>
@@ -10805,10 +7277,10 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="18">
         <v>4001</v>
@@ -10823,16 +7295,16 @@
         <v>95</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H6" s="18">
         <v>4094</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" s="24">
         <v>2.5</v>
@@ -10840,10 +7312,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="26">
         <v>4000</v>
@@ -10858,16 +7330,16 @@
         <v>95</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="26">
         <v>126</v>
       </c>
       <c r="I7" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" s="28">
         <v>2.5</v>
